--- a/ShoppingApp_DBMS.xlsx
+++ b/ShoppingApp_DBMS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpan Ghosh\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpan Ghosh\OneDrive\Desktop\Project_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53869D97-BCE3-4ECA-93A3-E576EF453767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A907CF3-FE8E-4AF9-9C94-2D77C7289C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DCD7E342-3236-406A-B184-69189BBE39D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DCD7E342-3236-406A-B184-69189BBE39D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
   <si>
     <t>Customer Table</t>
   </si>
@@ -267,13 +268,262 @@
   </si>
   <si>
     <t>Apply Discount of 5%</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>User Phn-No</t>
+  </si>
+  <si>
+    <t>User FName</t>
+  </si>
+  <si>
+    <t>User LName</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Book ID</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Educational</t>
+  </si>
+  <si>
+    <t>Fictional</t>
+  </si>
+  <si>
+    <t>Autobiography</t>
+  </si>
+  <si>
+    <t>There will be no pk only 2 fk.</t>
+  </si>
+  <si>
+    <t>Book-Author</t>
+  </si>
+  <si>
+    <t>BookID</t>
+  </si>
+  <si>
+    <t>AuthorID</t>
+  </si>
+  <si>
+    <t>Publishing Date</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>NoPages</t>
+  </si>
+  <si>
+    <t>Author Table</t>
+  </si>
+  <si>
+    <t>AuthorName</t>
+  </si>
+  <si>
+    <t>Other details to be added.</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>acd</t>
+  </si>
+  <si>
+    <t>Shipping Table</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Shipping ID</t>
+  </si>
+  <si>
+    <t>Sh1</t>
+  </si>
+  <si>
+    <t>Sh2</t>
+  </si>
+  <si>
+    <t>Sh3</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>…1</t>
+  </si>
+  <si>
+    <t>…2</t>
+  </si>
+  <si>
+    <t>…3</t>
+  </si>
+  <si>
+    <t>…11</t>
+  </si>
+  <si>
+    <t>….22</t>
+  </si>
+  <si>
+    <t>….33</t>
+  </si>
+  <si>
+    <t>…01</t>
+  </si>
+  <si>
+    <t>…02</t>
+  </si>
+  <si>
+    <t>…03</t>
+  </si>
+  <si>
+    <t>Order Table</t>
+  </si>
+  <si>
+    <t>Order-Date</t>
+  </si>
+  <si>
+    <t>Shipping Date</t>
+  </si>
+  <si>
+    <t>Deliver Date</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>O6</t>
+  </si>
+  <si>
+    <t>Order-Book Table</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +541,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -341,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -350,15 +608,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519A192-0ED2-4D58-8FB3-E5181C3CA38E}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +999,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="5"/>
@@ -760,7 +1020,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="5"/>
@@ -781,7 +1041,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="5"/>
@@ -802,7 +1062,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5"/>
@@ -823,7 +1083,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="5"/>
@@ -844,7 +1104,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5"/>
@@ -865,7 +1125,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="5"/>
@@ -886,7 +1146,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="5"/>
@@ -920,10 +1180,10 @@
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="6"/>
       <c r="F16" t="s">
         <v>31</v>
       </c>
@@ -956,10 +1216,10 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="6"/>
       <c r="F17">
         <v>2</v>
       </c>
@@ -977,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="6">
+      <c r="M17" s="7">
         <v>44831</v>
       </c>
       <c r="N17" s="5"/>
@@ -992,10 +1252,10 @@
       <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="6"/>
       <c r="F18">
         <v>1</v>
       </c>
@@ -1013,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="L18" s="5"/>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>44832</v>
       </c>
       <c r="N18" s="5"/>
@@ -1028,10 +1288,10 @@
       <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="6"/>
       <c r="F19">
         <v>2</v>
       </c>
@@ -1049,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="5"/>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>44833</v>
       </c>
       <c r="N19" s="5"/>
@@ -1064,10 +1324,10 @@
       <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="6"/>
       <c r="F20">
         <v>3</v>
       </c>
@@ -1085,7 +1345,7 @@
         <v>62</v>
       </c>
       <c r="L20" s="5"/>
-      <c r="M20" s="6">
+      <c r="M20" s="7">
         <v>44834</v>
       </c>
       <c r="N20" s="5"/>
@@ -1286,20 +1546,20 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="A14:N14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
@@ -1319,4 +1579,566 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E16B6-3CAE-4CAB-9590-54930C7F06F8}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>7003378772</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>9562056</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>4542146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>3112022</v>
+      </c>
+      <c r="C29">
+        <v>10112022</v>
+      </c>
+      <c r="D29">
+        <v>12112022</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>3112022</v>
+      </c>
+      <c r="C30">
+        <v>5112022</v>
+      </c>
+      <c r="D30">
+        <v>10112022</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>29102022</v>
+      </c>
+      <c r="C31">
+        <v>2112022</v>
+      </c>
+      <c r="D31">
+        <v>3112022</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>29102022</v>
+      </c>
+      <c r="C32">
+        <v>2112022</v>
+      </c>
+      <c r="D32">
+        <v>3112022</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33">
+        <v>29102022</v>
+      </c>
+      <c r="C33">
+        <v>2112022</v>
+      </c>
+      <c r="D33">
+        <v>3112022</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34">
+        <v>29102022</v>
+      </c>
+      <c r="C34">
+        <v>2112022</v>
+      </c>
+      <c r="D34">
+        <v>3112022</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>